--- a/data/pca/factorExposure/factorExposure_2009-09-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01813479872277966</v>
+        <v>0.016775697600281</v>
       </c>
       <c r="C2">
-        <v>-0.001571447280403537</v>
+        <v>-0.000905878080962</v>
       </c>
       <c r="D2">
-        <v>0.003299747852180009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009761955843886574</v>
+      </c>
+      <c r="E2">
+        <v>-0.002269351373494206</v>
+      </c>
+      <c r="F2">
+        <v>0.01238228669961376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09722821006980638</v>
+        <v>0.09404508693172774</v>
       </c>
       <c r="C4">
-        <v>-0.02114654975568061</v>
+        <v>-0.01457740329198713</v>
       </c>
       <c r="D4">
-        <v>0.06407893208212576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08397396656725328</v>
+      </c>
+      <c r="E4">
+        <v>-0.02837718112258592</v>
+      </c>
+      <c r="F4">
+        <v>-0.03164065979402935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1478193334222862</v>
+        <v>0.1593843597568081</v>
       </c>
       <c r="C6">
-        <v>-0.02704423050367585</v>
+        <v>-0.02682507482412385</v>
       </c>
       <c r="D6">
-        <v>-0.02464575345398052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02390585481024342</v>
+      </c>
+      <c r="E6">
+        <v>-0.01019129080869857</v>
+      </c>
+      <c r="F6">
+        <v>-0.0443772191759258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06506273381670945</v>
+        <v>0.06363053569348541</v>
       </c>
       <c r="C7">
-        <v>-0.003358183220407004</v>
+        <v>0.00167992906489207</v>
       </c>
       <c r="D7">
-        <v>0.0374735185357894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05261635447906789</v>
+      </c>
+      <c r="E7">
+        <v>-0.01205790371708748</v>
+      </c>
+      <c r="F7">
+        <v>-0.04602233135304205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06505572868015438</v>
+        <v>0.05765384249580743</v>
       </c>
       <c r="C8">
-        <v>0.009432337696977331</v>
+        <v>0.01318034786200067</v>
       </c>
       <c r="D8">
-        <v>0.01482332954387735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03254168093813509</v>
+      </c>
+      <c r="E8">
+        <v>-0.01810213507955157</v>
+      </c>
+      <c r="F8">
+        <v>0.02607378720464282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07481127342692362</v>
+        <v>0.07087890086185601</v>
       </c>
       <c r="C9">
-        <v>-0.01756457189279549</v>
+        <v>-0.01022383290254318</v>
       </c>
       <c r="D9">
-        <v>0.06599421650127332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08733888222821239</v>
+      </c>
+      <c r="E9">
+        <v>-0.02348352298146799</v>
+      </c>
+      <c r="F9">
+        <v>-0.04516021281657064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08023062242059249</v>
+        <v>0.09126362592231228</v>
       </c>
       <c r="C10">
-        <v>-0.01185008392184177</v>
+        <v>-0.02097925964061939</v>
       </c>
       <c r="D10">
-        <v>-0.1657784186423407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1638422966765411</v>
+      </c>
+      <c r="E10">
+        <v>0.03170463938721008</v>
+      </c>
+      <c r="F10">
+        <v>0.05687611529600523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0946027121253406</v>
+        <v>0.08832953171971109</v>
       </c>
       <c r="C11">
-        <v>-0.01836500519905925</v>
+        <v>-0.01035417752642442</v>
       </c>
       <c r="D11">
-        <v>0.09314826083387089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1172386549718657</v>
+      </c>
+      <c r="E11">
+        <v>-0.04582313983473248</v>
+      </c>
+      <c r="F11">
+        <v>-0.02232906767957449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1017187965619246</v>
+        <v>0.09207198140563791</v>
       </c>
       <c r="C12">
-        <v>-0.01629557019110362</v>
+        <v>-0.007713482036890286</v>
       </c>
       <c r="D12">
-        <v>0.09590049018480568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317968182148188</v>
+      </c>
+      <c r="E12">
+        <v>-0.0454242916446622</v>
+      </c>
+      <c r="F12">
+        <v>-0.02999881755189601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04270200934420176</v>
+        <v>0.04132342670821508</v>
       </c>
       <c r="C13">
-        <v>-0.006190189684306103</v>
+        <v>-0.002347303346949039</v>
       </c>
       <c r="D13">
-        <v>0.03089763510982362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05296243634543614</v>
+      </c>
+      <c r="E13">
+        <v>0.004652163075103097</v>
+      </c>
+      <c r="F13">
+        <v>-0.001219189609880562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.020206795962123</v>
+        <v>0.02401101984185374</v>
       </c>
       <c r="C14">
-        <v>-0.01535850003085609</v>
+        <v>-0.01381413382551248</v>
       </c>
       <c r="D14">
-        <v>0.02266340544503687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03349994768552794</v>
+      </c>
+      <c r="E14">
+        <v>-0.01868940445203732</v>
+      </c>
+      <c r="F14">
+        <v>-0.01351494181121162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03523557427926568</v>
+        <v>0.0330705882208706</v>
       </c>
       <c r="C15">
-        <v>-0.008093539494940844</v>
+        <v>-0.004685105754793504</v>
       </c>
       <c r="D15">
-        <v>0.02826212512424696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04521687858027915</v>
+      </c>
+      <c r="E15">
+        <v>-0.006019195198920263</v>
+      </c>
+      <c r="F15">
+        <v>-0.02546642399243304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08111334766306824</v>
+        <v>0.07438262958193161</v>
       </c>
       <c r="C16">
-        <v>-0.009112405634253329</v>
+        <v>-0.0009096000267591044</v>
       </c>
       <c r="D16">
-        <v>0.09592210084915885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278598747943302</v>
+      </c>
+      <c r="E16">
+        <v>-0.05998544907849528</v>
+      </c>
+      <c r="F16">
+        <v>-0.02685354990392961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000735128057800695</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001890508489718795</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001545072262505947</v>
+      </c>
+      <c r="E17">
+        <v>-0.0009733251936703962</v>
+      </c>
+      <c r="F17">
+        <v>0.00216333520266066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.01667607178272929</v>
+        <v>0.03631959802157172</v>
       </c>
       <c r="C18">
-        <v>0.003156448847170845</v>
+        <v>0.00295185153638159</v>
       </c>
       <c r="D18">
-        <v>0.03136209168878497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01574148799990856</v>
+      </c>
+      <c r="E18">
+        <v>0.0089071864356771</v>
+      </c>
+      <c r="F18">
+        <v>0.008045067034792986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06738783522264981</v>
+        <v>0.06213828704958257</v>
       </c>
       <c r="C20">
-        <v>-0.006767264765777226</v>
+        <v>-8.19940174878779e-05</v>
       </c>
       <c r="D20">
-        <v>0.04818605672515559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07742453288435065</v>
+      </c>
+      <c r="E20">
+        <v>-0.05503342142768566</v>
+      </c>
+      <c r="F20">
+        <v>-0.02944585419212758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04350526985171944</v>
+        <v>0.04072196773494431</v>
       </c>
       <c r="C21">
-        <v>-0.01056414295312127</v>
+        <v>-0.006415497946600667</v>
       </c>
       <c r="D21">
-        <v>0.0224210192416229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03850535605090631</v>
+      </c>
+      <c r="E21">
+        <v>0.001262559919369272</v>
+      </c>
+      <c r="F21">
+        <v>0.02504875160551777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04114716699900953</v>
+        <v>0.04330653422812455</v>
       </c>
       <c r="C22">
-        <v>-0.0007523642790700952</v>
+        <v>-0.000431963952015745</v>
       </c>
       <c r="D22">
-        <v>-0.01066601831177341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004561906055854173</v>
+      </c>
+      <c r="E22">
+        <v>-0.03659833059464152</v>
+      </c>
+      <c r="F22">
+        <v>0.03685628798230659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0411099215204355</v>
+        <v>0.04328229887018282</v>
       </c>
       <c r="C23">
-        <v>-0.000742927489631019</v>
+        <v>-0.000423441950140891</v>
       </c>
       <c r="D23">
-        <v>-0.01064558550501568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004577740198283017</v>
+      </c>
+      <c r="E23">
+        <v>-0.03678124185011578</v>
+      </c>
+      <c r="F23">
+        <v>0.03681731460436437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08647839093471425</v>
+        <v>0.08012023122970013</v>
       </c>
       <c r="C24">
-        <v>-0.009464888452115305</v>
+        <v>-0.001618225178083825</v>
       </c>
       <c r="D24">
-        <v>0.1012357190216229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206112328306073</v>
+      </c>
+      <c r="E24">
+        <v>-0.0480640008363692</v>
+      </c>
+      <c r="F24">
+        <v>-0.02849702602448072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09149202190345845</v>
+        <v>0.08503291670582892</v>
       </c>
       <c r="C25">
-        <v>-0.01186326653264598</v>
+        <v>-0.004209743137580177</v>
       </c>
       <c r="D25">
-        <v>0.08735145056369621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.110113533403246</v>
+      </c>
+      <c r="E25">
+        <v>-0.03211650413045</v>
+      </c>
+      <c r="F25">
+        <v>-0.02610564029096731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05873486267808455</v>
+        <v>0.05911949779494239</v>
       </c>
       <c r="C26">
-        <v>-0.01837374387050101</v>
+        <v>-0.0144867618887169</v>
       </c>
       <c r="D26">
-        <v>0.01601690738912481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04135599235217921</v>
+      </c>
+      <c r="E26">
+        <v>-0.0285281772987332</v>
+      </c>
+      <c r="F26">
+        <v>0.00702426198532998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1292715384091103</v>
+        <v>0.1421073382061</v>
       </c>
       <c r="C28">
-        <v>-0.01002113537242904</v>
+        <v>-0.02243378365585967</v>
       </c>
       <c r="D28">
-        <v>-0.2776858164259399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.261398570186043</v>
+      </c>
+      <c r="E28">
+        <v>0.0667287632461155</v>
+      </c>
+      <c r="F28">
+        <v>-0.004205805095786728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02674887498610379</v>
+        <v>0.02875688201713597</v>
       </c>
       <c r="C29">
-        <v>-0.0100489381888713</v>
+        <v>-0.008716650797290386</v>
       </c>
       <c r="D29">
-        <v>0.01981507442001451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03144238381031199</v>
+      </c>
+      <c r="E29">
+        <v>-0.01382655054276686</v>
+      </c>
+      <c r="F29">
+        <v>0.01271178580304629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06925828275038004</v>
+        <v>0.05912763921034001</v>
       </c>
       <c r="C30">
-        <v>-0.01065521810569024</v>
+        <v>-0.002601272550785569</v>
       </c>
       <c r="D30">
-        <v>0.05931405376909649</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08924179548254539</v>
+      </c>
+      <c r="E30">
+        <v>-0.01459138861023383</v>
+      </c>
+      <c r="F30">
+        <v>-0.07879782662894168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05130479170802826</v>
+        <v>0.05117179251826546</v>
       </c>
       <c r="C31">
-        <v>-0.01698227284160615</v>
+        <v>-0.01556498265888867</v>
       </c>
       <c r="D31">
-        <v>0.02063852607340307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02490653790885425</v>
+      </c>
+      <c r="E31">
+        <v>-0.02876980674528401</v>
+      </c>
+      <c r="F31">
+        <v>0.001173086536659282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04779310109549429</v>
+        <v>0.05147875840573783</v>
       </c>
       <c r="C32">
-        <v>-0.002180008741504195</v>
+        <v>0.001826313637568815</v>
       </c>
       <c r="D32">
-        <v>0.01941567974084517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03625669003482697</v>
+      </c>
+      <c r="E32">
+        <v>-0.03440241851933993</v>
+      </c>
+      <c r="F32">
+        <v>-0.004261263302143803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09499769083533975</v>
+        <v>0.08854307864113606</v>
       </c>
       <c r="C33">
-        <v>-0.01425621510318576</v>
+        <v>-0.006457863451929799</v>
       </c>
       <c r="D33">
-        <v>0.07466620595145222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1028445613818902</v>
+      </c>
+      <c r="E33">
+        <v>-0.04389926246175121</v>
+      </c>
+      <c r="F33">
+        <v>-0.03812737658740748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07370122116142205</v>
+        <v>0.0680068115855099</v>
       </c>
       <c r="C34">
-        <v>-0.01651194042446714</v>
+        <v>-0.009981545270290939</v>
       </c>
       <c r="D34">
-        <v>0.08052514040032524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1100137073699954</v>
+      </c>
+      <c r="E34">
+        <v>-0.03417689420143587</v>
+      </c>
+      <c r="F34">
+        <v>-0.03221765512484698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02417098029872106</v>
+        <v>0.02547733657351221</v>
       </c>
       <c r="C35">
-        <v>-0.002672262311026071</v>
+        <v>-0.002557980045216551</v>
       </c>
       <c r="D35">
-        <v>0.006104053444240234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01208225745241768</v>
+      </c>
+      <c r="E35">
+        <v>-0.01250390079148435</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009174245288868397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02776060542143131</v>
+        <v>0.02765300813432148</v>
       </c>
       <c r="C36">
-        <v>-0.008130713345186068</v>
+        <v>-0.006792823512532391</v>
       </c>
       <c r="D36">
-        <v>0.03817752055838197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04014151449437084</v>
+      </c>
+      <c r="E36">
+        <v>-0.01682688300232543</v>
+      </c>
+      <c r="F36">
+        <v>-0.01504226493848139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004205979375769108</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006460082221645058</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00238208348647288</v>
+      </c>
+      <c r="E37">
+        <v>0.001006257210875132</v>
+      </c>
+      <c r="F37">
+        <v>0.001573678535039437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1197400286171394</v>
+        <v>0.10440134061136</v>
       </c>
       <c r="C39">
-        <v>-0.02503269179547697</v>
+        <v>-0.0155694566504239</v>
       </c>
       <c r="D39">
-        <v>0.136553567139676</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1547129776093117</v>
+      </c>
+      <c r="E39">
+        <v>-0.05909624237640578</v>
+      </c>
+      <c r="F39">
+        <v>-0.02912605958551584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03839656453893465</v>
+        <v>0.04140607323703088</v>
       </c>
       <c r="C40">
-        <v>-0.01000120483023878</v>
+        <v>-0.007140290819594044</v>
       </c>
       <c r="D40">
-        <v>0.009019666548375507</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03067062121637509</v>
+      </c>
+      <c r="E40">
+        <v>-0.001783121754154422</v>
+      </c>
+      <c r="F40">
+        <v>0.01739507004544468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02478000115821248</v>
+        <v>0.02768322517460137</v>
       </c>
       <c r="C41">
-        <v>-0.007230930390719064</v>
+        <v>-0.006799638009922378</v>
       </c>
       <c r="D41">
-        <v>0.01022565223542743</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01110366153672176</v>
+      </c>
+      <c r="E41">
+        <v>-0.01235519005119934</v>
+      </c>
+      <c r="F41">
+        <v>0.005410900480080012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04241830685034677</v>
+        <v>0.04069581079247946</v>
       </c>
       <c r="C43">
-        <v>-0.008472098462509276</v>
+        <v>-0.007010836639709002</v>
       </c>
       <c r="D43">
-        <v>0.01226119544174436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01930729591255551</v>
+      </c>
+      <c r="E43">
+        <v>-0.02580602778931409</v>
+      </c>
+      <c r="F43">
+        <v>0.01258826256387188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.08125128386253486</v>
+        <v>0.08041089154942942</v>
       </c>
       <c r="C44">
-        <v>-0.02763722415838369</v>
+        <v>-0.0192569387334549</v>
       </c>
       <c r="D44">
-        <v>0.07014242505466713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09736282783306592</v>
+      </c>
+      <c r="E44">
+        <v>-0.06078108250788413</v>
+      </c>
+      <c r="F44">
+        <v>-0.1590734042660729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02036552933140095</v>
+        <v>0.02309582556251814</v>
       </c>
       <c r="C46">
-        <v>-0.003721530841489641</v>
+        <v>-0.003214259500446933</v>
       </c>
       <c r="D46">
-        <v>0.006995857038345967</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01350183730203332</v>
+      </c>
+      <c r="E46">
+        <v>-0.02609836028152062</v>
+      </c>
+      <c r="F46">
+        <v>0.006651368931995411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05429711898969372</v>
+        <v>0.05262742409917416</v>
       </c>
       <c r="C47">
-        <v>-0.004690608515542927</v>
+        <v>-0.0036872054457603</v>
       </c>
       <c r="D47">
-        <v>0.005921765580593688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01246022851850306</v>
+      </c>
+      <c r="E47">
+        <v>-0.02399986171105085</v>
+      </c>
+      <c r="F47">
+        <v>0.03164013552182264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04995002711642643</v>
+        <v>0.05010092918950963</v>
       </c>
       <c r="C48">
-        <v>-0.005411211006052776</v>
+        <v>-0.00213050020067414</v>
       </c>
       <c r="D48">
-        <v>0.04034446600342083</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05098956281265406</v>
+      </c>
+      <c r="E48">
+        <v>0.004717285455412116</v>
+      </c>
+      <c r="F48">
+        <v>-0.008589698201268344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2007752994767421</v>
+        <v>0.1996387756047716</v>
       </c>
       <c r="C49">
-        <v>-0.02014151119506412</v>
+        <v>-0.01892439840001075</v>
       </c>
       <c r="D49">
-        <v>-0.01945406350388427</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007387080177266746</v>
+      </c>
+      <c r="E49">
+        <v>-0.02919289683369146</v>
+      </c>
+      <c r="F49">
+        <v>-0.03961451478641957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04987695216012929</v>
+        <v>0.05153032998729516</v>
       </c>
       <c r="C50">
-        <v>-0.0131023031735926</v>
+        <v>-0.01126332432450026</v>
       </c>
       <c r="D50">
-        <v>0.02006165886999525</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02431398126650097</v>
+      </c>
+      <c r="E50">
+        <v>-0.03008657136642144</v>
+      </c>
+      <c r="F50">
+        <v>-0.01018016426696995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1555991363365514</v>
+        <v>0.1490051956268022</v>
       </c>
       <c r="C52">
-        <v>-0.01906163232050265</v>
+        <v>-0.01750933856127726</v>
       </c>
       <c r="D52">
-        <v>0.04958379677251204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04176728704489933</v>
+      </c>
+      <c r="E52">
+        <v>-0.02019175590511646</v>
+      </c>
+      <c r="F52">
+        <v>-0.04454549768829693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1718759138641798</v>
+        <v>0.1710872843837033</v>
       </c>
       <c r="C53">
-        <v>-0.01874049114031587</v>
+        <v>-0.01991597736812578</v>
       </c>
       <c r="D53">
-        <v>0.01673844857576626</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004962411750594936</v>
+      </c>
+      <c r="E53">
+        <v>-0.02842120932490458</v>
+      </c>
+      <c r="F53">
+        <v>-0.07469017295206599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01981682668440745</v>
+        <v>0.02064867580487836</v>
       </c>
       <c r="C54">
-        <v>-0.01264790033122427</v>
+        <v>-0.01124053710192075</v>
       </c>
       <c r="D54">
-        <v>0.025753466819475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0345477521362736</v>
+      </c>
+      <c r="E54">
+        <v>-0.02221898124298897</v>
+      </c>
+      <c r="F54">
+        <v>0.005230892051511073</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.113818572004585</v>
+        <v>0.1145674191906095</v>
       </c>
       <c r="C55">
-        <v>-0.0172288660640007</v>
+        <v>-0.01752227811885732</v>
       </c>
       <c r="D55">
-        <v>0.01293879209038592</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007365306938407862</v>
+      </c>
+      <c r="E55">
+        <v>-0.02340134756989913</v>
+      </c>
+      <c r="F55">
+        <v>-0.04761625316247917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.178323444502562</v>
+        <v>0.1768103479371903</v>
       </c>
       <c r="C56">
-        <v>-0.01632834742516531</v>
+        <v>-0.01783994159791243</v>
       </c>
       <c r="D56">
-        <v>0.01129467158409799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002701091945411419</v>
+      </c>
+      <c r="E56">
+        <v>-0.03250164629925239</v>
+      </c>
+      <c r="F56">
+        <v>-0.05534619843929365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05007897426140579</v>
+        <v>0.04479068719761493</v>
       </c>
       <c r="C58">
-        <v>-0.005678425485343756</v>
+        <v>0.0004561414849737112</v>
       </c>
       <c r="D58">
-        <v>0.05401325069547736</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07101035807043539</v>
+      </c>
+      <c r="E58">
+        <v>-0.03159248945153283</v>
+      </c>
+      <c r="F58">
+        <v>0.03718082197924429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1584133751359321</v>
+        <v>0.1673515577511606</v>
       </c>
       <c r="C59">
-        <v>-0.01188112329192508</v>
+        <v>-0.02261953216174369</v>
       </c>
       <c r="D59">
-        <v>-0.2274453314170446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2179708179205117</v>
+      </c>
+      <c r="E59">
+        <v>0.04617064579256396</v>
+      </c>
+      <c r="F59">
+        <v>0.03445303352002082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2380807602334552</v>
+        <v>0.2317606375428535</v>
       </c>
       <c r="C60">
-        <v>-0.0004192750384237453</v>
+        <v>0.00208431555895993</v>
       </c>
       <c r="D60">
-        <v>0.04466646256576222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03892209109168418</v>
+      </c>
+      <c r="E60">
+        <v>-0.006242649907233546</v>
+      </c>
+      <c r="F60">
+        <v>-0.001116795397851361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08999486877476479</v>
+        <v>0.07997423466107902</v>
       </c>
       <c r="C61">
-        <v>-0.01870914297277314</v>
+        <v>-0.01111139353473469</v>
       </c>
       <c r="D61">
-        <v>0.09398005310363024</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1177805367973882</v>
+      </c>
+      <c r="E61">
+        <v>-0.03866848429477331</v>
+      </c>
+      <c r="F61">
+        <v>-0.01246470546548133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1708771310274225</v>
+        <v>0.1694049045873566</v>
       </c>
       <c r="C62">
-        <v>-0.0205498386057834</v>
+        <v>-0.02082383988320263</v>
       </c>
       <c r="D62">
-        <v>0.006135464515532246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004774788757447953</v>
+      </c>
+      <c r="E62">
+        <v>-0.03263681380538863</v>
+      </c>
+      <c r="F62">
+        <v>-0.03692560083615581</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04557528023737643</v>
+        <v>0.04555092223392265</v>
       </c>
       <c r="C63">
-        <v>-0.00624952222171212</v>
+        <v>-0.001606827457029099</v>
       </c>
       <c r="D63">
-        <v>0.04018701360051091</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05912041900294033</v>
+      </c>
+      <c r="E63">
+        <v>-0.02308236148744154</v>
+      </c>
+      <c r="F63">
+        <v>-0.003055677653979374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1111317470638872</v>
+        <v>0.1109004231852359</v>
       </c>
       <c r="C64">
-        <v>-0.01479451579235674</v>
+        <v>-0.01137217530113705</v>
       </c>
       <c r="D64">
-        <v>0.03324726154463876</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04359966394134988</v>
+      </c>
+      <c r="E64">
+        <v>-0.02241538101267596</v>
+      </c>
+      <c r="F64">
+        <v>-0.0264681022473021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1382438292694901</v>
+        <v>0.1507494256038232</v>
       </c>
       <c r="C65">
-        <v>-0.03248740631495262</v>
+        <v>-0.0342480348919511</v>
       </c>
       <c r="D65">
-        <v>-0.04862724662478614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04501868312124139</v>
+      </c>
+      <c r="E65">
+        <v>-0.005193193216892748</v>
+      </c>
+      <c r="F65">
+        <v>-0.03973408753816298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1429144595476574</v>
+        <v>0.12382498490229</v>
       </c>
       <c r="C66">
-        <v>-0.02304519161320656</v>
+        <v>-0.01349401490496684</v>
       </c>
       <c r="D66">
-        <v>0.1138519895276053</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424816565933045</v>
+      </c>
+      <c r="E66">
+        <v>-0.06441721160716839</v>
+      </c>
+      <c r="F66">
+        <v>-0.03404365392968335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06488031868540491</v>
+        <v>0.05713381606963036</v>
       </c>
       <c r="C67">
-        <v>-0.005474554733736953</v>
+        <v>-0.00275549431240779</v>
       </c>
       <c r="D67">
-        <v>0.05207921522478237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05558881829024307</v>
+      </c>
+      <c r="E67">
+        <v>-0.01615593872844364</v>
+      </c>
+      <c r="F67">
+        <v>0.02942925306575815</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.100986291611744</v>
+        <v>0.1163136823394015</v>
       </c>
       <c r="C68">
-        <v>-0.02028718258790473</v>
+        <v>-0.03316576698257533</v>
       </c>
       <c r="D68">
-        <v>-0.2744952119736873</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613044188575301</v>
+      </c>
+      <c r="E68">
+        <v>0.08643825156845797</v>
+      </c>
+      <c r="F68">
+        <v>0.001026935115149427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04099743062130971</v>
+        <v>0.03905433015224515</v>
       </c>
       <c r="C69">
-        <v>-0.001517187003128618</v>
+        <v>-0.001208991313143708</v>
       </c>
       <c r="D69">
-        <v>0.008100070148795827</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008526569068556913</v>
+      </c>
+      <c r="E69">
+        <v>-0.02403912446794198</v>
+      </c>
+      <c r="F69">
+        <v>-0.001372202766462673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06669620321090196</v>
+        <v>0.06644516556479724</v>
       </c>
       <c r="C70">
-        <v>0.02364098542049825</v>
+        <v>0.02749128243843939</v>
       </c>
       <c r="D70">
-        <v>-0.01402508047684202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02461579103739194</v>
+      </c>
+      <c r="E70">
+        <v>0.03177362952349846</v>
+      </c>
+      <c r="F70">
+        <v>0.1797055281814785</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1195612581254206</v>
+        <v>0.136066310440144</v>
       </c>
       <c r="C71">
-        <v>-0.02377600041128772</v>
+        <v>-0.0374910723864468</v>
       </c>
       <c r="D71">
-        <v>-0.2901505258019259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2727149710994317</v>
+      </c>
+      <c r="E71">
+        <v>0.09690669245037435</v>
+      </c>
+      <c r="F71">
+        <v>-0.004572619716472814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1375948259651817</v>
+        <v>0.1424172740437492</v>
       </c>
       <c r="C72">
-        <v>-0.02700547282466122</v>
+        <v>-0.02725643956192559</v>
       </c>
       <c r="D72">
-        <v>0.002004260310291854</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003365138110650949</v>
+      </c>
+      <c r="E72">
+        <v>-0.0368129386259957</v>
+      </c>
+      <c r="F72">
+        <v>-0.03130965964831007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2058515822672516</v>
+        <v>0.2041763927443325</v>
       </c>
       <c r="C73">
-        <v>-0.01580352336035813</v>
+        <v>-0.0130544451017872</v>
       </c>
       <c r="D73">
-        <v>0.01568833971686828</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01595424396527629</v>
+      </c>
+      <c r="E73">
+        <v>-0.06144233089049211</v>
+      </c>
+      <c r="F73">
+        <v>-0.04067443126844569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09114724683226723</v>
+        <v>0.0949193609351225</v>
       </c>
       <c r="C74">
-        <v>-0.0130004699584927</v>
+        <v>-0.01337473727820836</v>
       </c>
       <c r="D74">
-        <v>0.02428040843554332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01684395020643649</v>
+      </c>
+      <c r="E74">
+        <v>-0.04386159952741164</v>
+      </c>
+      <c r="F74">
+        <v>-0.05743471095774037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1336319610168174</v>
+        <v>0.1272729917510146</v>
       </c>
       <c r="C75">
-        <v>-0.02947459044981531</v>
+        <v>-0.02838187528795791</v>
       </c>
       <c r="D75">
-        <v>0.03163249072114641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03009939917519788</v>
+      </c>
+      <c r="E75">
+        <v>-0.05733795232193</v>
+      </c>
+      <c r="F75">
+        <v>-0.02357033442669678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0837465798671973</v>
+        <v>0.08921032316104448</v>
       </c>
       <c r="C77">
-        <v>-0.01544404621192154</v>
+        <v>-0.008038958683896823</v>
       </c>
       <c r="D77">
-        <v>0.09451712932795064</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1130952935917911</v>
+      </c>
+      <c r="E77">
+        <v>-0.04211434812893875</v>
+      </c>
+      <c r="F77">
+        <v>-0.03342567803010755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1056427804312218</v>
+        <v>0.1003495790310383</v>
       </c>
       <c r="C78">
-        <v>-0.04729170504269554</v>
+        <v>-0.03923654309487824</v>
       </c>
       <c r="D78">
-        <v>0.09520601113524182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1141141655780911</v>
+      </c>
+      <c r="E78">
+        <v>-0.0734777075344689</v>
+      </c>
+      <c r="F78">
+        <v>-0.04779683676579075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1640284877358626</v>
+        <v>0.1636291673577659</v>
       </c>
       <c r="C79">
-        <v>-0.02359098052522695</v>
+        <v>-0.02314008972779101</v>
       </c>
       <c r="D79">
-        <v>0.01445485975129793</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01389676406880209</v>
+      </c>
+      <c r="E79">
+        <v>-0.04545562688592127</v>
+      </c>
+      <c r="F79">
+        <v>-0.01390213557270506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08886204528665456</v>
+        <v>0.08180992776144717</v>
       </c>
       <c r="C80">
-        <v>-0.002008866631440435</v>
+        <v>0.000935638968031661</v>
       </c>
       <c r="D80">
-        <v>0.03995821245632915</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05617776391937813</v>
+      </c>
+      <c r="E80">
+        <v>-0.0348959961117536</v>
+      </c>
+      <c r="F80">
+        <v>0.01956061895411423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1183234080423344</v>
+        <v>0.1183435767902689</v>
       </c>
       <c r="C81">
-        <v>-0.03173324409316179</v>
+        <v>-0.03192326853513039</v>
       </c>
       <c r="D81">
-        <v>0.02929407940763594</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01587177611299105</v>
+      </c>
+      <c r="E81">
+        <v>-0.05685341785238321</v>
+      </c>
+      <c r="F81">
+        <v>-0.02139150196453798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1646051478678086</v>
+        <v>0.1655443128340737</v>
       </c>
       <c r="C82">
-        <v>-0.02410612283643012</v>
+        <v>-0.02515886654058549</v>
       </c>
       <c r="D82">
-        <v>0.01640931570471297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004004098882589414</v>
+      </c>
+      <c r="E82">
+        <v>-0.02565494680388583</v>
+      </c>
+      <c r="F82">
+        <v>-0.08331923525688416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06824818455152884</v>
+        <v>0.05856809294159725</v>
       </c>
       <c r="C83">
-        <v>-0.00661869847148035</v>
+        <v>-0.002790887546045292</v>
       </c>
       <c r="D83">
-        <v>0.0328641375777939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05052390584850824</v>
+      </c>
+      <c r="E83">
+        <v>-0.003125790991994721</v>
+      </c>
+      <c r="F83">
+        <v>0.02921282394324015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06681460953013768</v>
+        <v>0.05978585560995905</v>
       </c>
       <c r="C84">
-        <v>-0.01521351735822069</v>
+        <v>-0.01138959030343559</v>
       </c>
       <c r="D84">
-        <v>0.04989607844679203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06251508317055975</v>
+      </c>
+      <c r="E84">
+        <v>-0.006804169381101944</v>
+      </c>
+      <c r="F84">
+        <v>-0.004881509442376243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1370653947320288</v>
+        <v>0.1354178274420037</v>
       </c>
       <c r="C85">
-        <v>-0.02819971002011361</v>
+        <v>-0.02836938538316442</v>
       </c>
       <c r="D85">
-        <v>0.01766026156759195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009163107085992763</v>
+      </c>
+      <c r="E85">
+        <v>-0.0358960627053321</v>
+      </c>
+      <c r="F85">
+        <v>-0.04791958408602805</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1061468408209032</v>
+        <v>0.09497642014576503</v>
       </c>
       <c r="C86">
-        <v>0.001642757709711747</v>
+        <v>0.005978399805853068</v>
       </c>
       <c r="D86">
-        <v>-0.01316526263324286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04729263863132877</v>
+      </c>
+      <c r="E86">
+        <v>-0.241574965659328</v>
+      </c>
+      <c r="F86">
+        <v>0.9029756729898938</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1009476992085878</v>
+        <v>0.09462620063525223</v>
       </c>
       <c r="C87">
-        <v>-0.02951109233805497</v>
+        <v>-0.01935925172944418</v>
       </c>
       <c r="D87">
-        <v>0.06119439168923906</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09368619017297312</v>
+      </c>
+      <c r="E87">
+        <v>0.0541539088427783</v>
+      </c>
+      <c r="F87">
+        <v>-0.04533318450700102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06108882327885037</v>
+        <v>0.06044266607636641</v>
       </c>
       <c r="C88">
-        <v>-0.005330398367940069</v>
+        <v>-0.002188053419999436</v>
       </c>
       <c r="D88">
-        <v>0.05430941553696784</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.049810093810994</v>
+      </c>
+      <c r="E88">
+        <v>-0.02400114787719737</v>
+      </c>
+      <c r="F88">
+        <v>-0.01556723192473371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1146899858194829</v>
+        <v>0.1285159522601547</v>
       </c>
       <c r="C89">
-        <v>-0.001848910040697135</v>
+        <v>-0.01329776917346639</v>
       </c>
       <c r="D89">
-        <v>-0.2673820481159716</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2453047592782949</v>
+      </c>
+      <c r="E89">
+        <v>0.08836647583956714</v>
+      </c>
+      <c r="F89">
+        <v>0.0136448922348594</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1294757171984189</v>
+        <v>0.1509123920063592</v>
       </c>
       <c r="C90">
-        <v>-0.0205362638144571</v>
+        <v>-0.03429467317499156</v>
       </c>
       <c r="D90">
-        <v>-0.2777694037902105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2710700177999845</v>
+      </c>
+      <c r="E90">
+        <v>0.1133117818423455</v>
+      </c>
+      <c r="F90">
+        <v>0.01229181183566803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1191183743176354</v>
+        <v>0.1213771857378883</v>
       </c>
       <c r="C91">
-        <v>-0.01872145702107076</v>
+        <v>-0.02013117091809641</v>
       </c>
       <c r="D91">
-        <v>-0.005571229985896283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01581529507677666</v>
+      </c>
+      <c r="E91">
+        <v>-0.05524765845988928</v>
+      </c>
+      <c r="F91">
+        <v>-0.001148785050872915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1342869761658116</v>
+        <v>0.1473844156291821</v>
       </c>
       <c r="C92">
-        <v>-0.01000125121000008</v>
+        <v>-0.02474338833239818</v>
       </c>
       <c r="D92">
-        <v>-0.3114894590362765</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2909510719020105</v>
+      </c>
+      <c r="E92">
+        <v>0.1003781477937858</v>
+      </c>
+      <c r="F92">
+        <v>0.01840679618265571</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1331497196470247</v>
+        <v>0.1509529499750918</v>
       </c>
       <c r="C93">
-        <v>-0.01596016414266293</v>
+        <v>-0.02921456473438637</v>
       </c>
       <c r="D93">
-        <v>-0.2732472332236313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2674219324339092</v>
+      </c>
+      <c r="E93">
+        <v>0.07705068786376325</v>
+      </c>
+      <c r="F93">
+        <v>0.003204837608696103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1345478561737958</v>
+        <v>0.1283176614584</v>
       </c>
       <c r="C94">
-        <v>-0.02666573934802988</v>
+        <v>-0.02483679588034734</v>
       </c>
       <c r="D94">
-        <v>0.04517520739548098</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04132775860816555</v>
+      </c>
+      <c r="E94">
+        <v>-0.05694952845136891</v>
+      </c>
+      <c r="F94">
+        <v>-0.03656805184315019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1290145143020607</v>
+        <v>0.1268364754115121</v>
       </c>
       <c r="C95">
-        <v>-0.01104335142559704</v>
+        <v>-0.003356848354531225</v>
       </c>
       <c r="D95">
-        <v>0.06730003744447244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09479604320224533</v>
+      </c>
+      <c r="E95">
+        <v>-0.05005993475914775</v>
+      </c>
+      <c r="F95">
+        <v>0.009188083129784986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1159164147734725</v>
+        <v>0.109975319322141</v>
       </c>
       <c r="C96">
-        <v>0.9874707786182313</v>
+        <v>0.9870079227039315</v>
       </c>
       <c r="D96">
-        <v>-0.008363258805067093</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05160650299531128</v>
+      </c>
+      <c r="E96">
+        <v>-0.05227739272484046</v>
+      </c>
+      <c r="F96">
+        <v>-0.04277751842967267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1909778982179056</v>
+        <v>0.1910921240883191</v>
       </c>
       <c r="C97">
-        <v>0.0067359824877162</v>
+        <v>0.006681225062740389</v>
       </c>
       <c r="D97">
-        <v>-0.01267356801453807</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01917271714034289</v>
+      </c>
+      <c r="E97">
+        <v>-0.02331772352040924</v>
+      </c>
+      <c r="F97">
+        <v>0.09112308331679139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1991515122935767</v>
+        <v>0.2061545712518225</v>
       </c>
       <c r="C98">
-        <v>-0.01024594845486759</v>
+        <v>-0.007158631825158029</v>
       </c>
       <c r="D98">
-        <v>0.01414128845462084</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01319990602005135</v>
+      </c>
+      <c r="E98">
+        <v>0.07558140364006478</v>
+      </c>
+      <c r="F98">
+        <v>0.09176243776141113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05671846189499789</v>
+        <v>0.05475518993803963</v>
       </c>
       <c r="C99">
-        <v>0.001959124485510192</v>
+        <v>0.004486773750910547</v>
       </c>
       <c r="D99">
-        <v>0.0233247537586732</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03917697401078039</v>
+      </c>
+      <c r="E99">
+        <v>-0.02167417562661219</v>
+      </c>
+      <c r="F99">
+        <v>-0.003074573313410006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1437392976881878</v>
+        <v>0.1283426299310812</v>
       </c>
       <c r="C100">
-        <v>0.03698924411275012</v>
+        <v>0.05308535363466203</v>
       </c>
       <c r="D100">
-        <v>0.4206576939695904</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3460770518988167</v>
+      </c>
+      <c r="E100">
+        <v>0.8840345965896972</v>
+      </c>
+      <c r="F100">
+        <v>0.1680943296348071</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02657404607622176</v>
+        <v>0.02869606955975213</v>
       </c>
       <c r="C101">
-        <v>-0.00999283429350244</v>
+        <v>-0.008733796274026366</v>
       </c>
       <c r="D101">
-        <v>0.01932817177798945</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03109345261027435</v>
+      </c>
+      <c r="E101">
+        <v>-0.01326438044529968</v>
+      </c>
+      <c r="F101">
+        <v>0.0139330042128996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
